--- a/evaluation/concrete orbac Policy generation.xlsx
+++ b/evaluation/concrete orbac Policy generation.xlsx
@@ -31,7 +31,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -39,8 +39,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -49,13 +57,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -72,10 +74,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -377,235 +378,349 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M24"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="13" max="13" width="22.7109375" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="8" max="8" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>5</v>
-      </c>
-      <c r="C1">
+      <c r="B1" s="1">
         <v>10</v>
       </c>
-      <c r="D1">
-        <v>15</v>
-      </c>
-      <c r="E1">
+      <c r="C1" s="1">
         <v>20</v>
       </c>
-      <c r="F1">
-        <v>25</v>
-      </c>
-      <c r="G1">
+      <c r="D1" s="1">
         <v>30</v>
       </c>
-      <c r="H1">
-        <v>35</v>
-      </c>
-      <c r="I1">
+      <c r="E1" s="1">
         <v>40</v>
       </c>
-      <c r="J1">
-        <v>45</v>
-      </c>
-      <c r="K1">
+      <c r="F1" s="1">
         <v>50</v>
       </c>
-      <c r="L1">
+      <c r="G1" s="1">
         <v>60</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>5</v>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>16</v>
+      </c>
+      <c r="D2">
+        <v>16</v>
+      </c>
+      <c r="E2">
+        <v>37</v>
+      </c>
+      <c r="F2">
+        <v>47</v>
+      </c>
+      <c r="G2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>20</v>
+      </c>
+      <c r="B3">
+        <v>16</v>
+      </c>
+      <c r="C3">
+        <v>24</v>
+      </c>
+      <c r="D3">
+        <v>60</v>
+      </c>
+      <c r="E3">
+        <v>71</v>
+      </c>
+      <c r="F3">
+        <v>82</v>
+      </c>
+      <c r="G3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>30</v>
+      </c>
+      <c r="B4">
+        <v>19</v>
+      </c>
+      <c r="C4">
+        <v>54</v>
+      </c>
+      <c r="D4">
+        <v>74</v>
+      </c>
+      <c r="E4">
+        <v>160</v>
+      </c>
+      <c r="F4">
+        <v>168</v>
+      </c>
+      <c r="G4">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>40</v>
+      </c>
+      <c r="B5">
+        <v>29</v>
+      </c>
+      <c r="C5">
+        <v>74</v>
+      </c>
+      <c r="D5">
+        <v>97</v>
+      </c>
+      <c r="E5">
+        <v>163</v>
+      </c>
+      <c r="F5">
+        <v>228</v>
+      </c>
+      <c r="G5">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>50</v>
+      </c>
+      <c r="B6">
+        <v>44</v>
+      </c>
+      <c r="C6">
+        <v>131</v>
+      </c>
+      <c r="D6">
+        <v>144</v>
+      </c>
+      <c r="E6">
+        <v>228</v>
+      </c>
+      <c r="F6">
+        <v>288</v>
+      </c>
+      <c r="G6">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>60</v>
+      </c>
+      <c r="B7">
+        <v>44</v>
+      </c>
+      <c r="C7">
+        <v>133</v>
+      </c>
+      <c r="D7">
+        <v>815</v>
+      </c>
+      <c r="E7">
+        <v>251</v>
+      </c>
+      <c r="F7">
+        <v>358</v>
+      </c>
+      <c r="G7">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1">
         <v>10</v>
       </c>
-      <c r="B3">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>15</v>
-      </c>
-      <c r="B4">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="C10" s="1">
         <v>20</v>
       </c>
-      <c r="B5">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="D10" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="E10" s="1">
         <v>40</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="F10" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="G10" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>0</v>
+      <c r="H10" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>26</v>
+      </c>
+      <c r="C11">
+        <v>40</v>
+      </c>
+      <c r="D11">
+        <v>84</v>
+      </c>
+      <c r="E11">
+        <v>88</v>
+      </c>
+      <c r="F11">
+        <v>88</v>
+      </c>
+      <c r="G11">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>40</v>
+      </c>
+      <c r="C12">
+        <v>79</v>
+      </c>
+      <c r="D12">
+        <v>112</v>
+      </c>
+      <c r="E12">
+        <v>137</v>
+      </c>
+      <c r="F12">
+        <v>199</v>
+      </c>
+      <c r="G12">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>30</v>
       </c>
       <c r="B13">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="C13">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="D13">
-        <v>15</v>
+        <v>172</v>
       </c>
       <c r="E13">
-        <v>20</v>
+        <v>278</v>
       </c>
       <c r="F13">
-        <v>25</v>
+        <v>287</v>
       </c>
       <c r="G13">
-        <v>30</v>
-      </c>
-      <c r="H13">
-        <v>35</v>
-      </c>
-      <c r="I13">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>40</v>
       </c>
-      <c r="J13">
-        <v>45</v>
-      </c>
-      <c r="K13">
+      <c r="B14">
+        <v>75</v>
+      </c>
+      <c r="C14">
+        <v>152</v>
+      </c>
+      <c r="D14">
+        <v>266</v>
+      </c>
+      <c r="E14">
+        <v>302</v>
+      </c>
+      <c r="F14">
+        <v>451</v>
+      </c>
+      <c r="G14">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>50</v>
       </c>
-      <c r="L13">
+      <c r="B15">
+        <v>111</v>
+      </c>
+      <c r="C15">
+        <v>178</v>
+      </c>
+      <c r="D15">
+        <v>285</v>
+      </c>
+      <c r="E15">
+        <v>503</v>
+      </c>
+      <c r="F15">
+        <v>577</v>
+      </c>
+      <c r="G15">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>60</v>
       </c>
-      <c r="M13" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>5</v>
-      </c>
-      <c r="B14">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>10</v>
-      </c>
-      <c r="B15">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>15</v>
-      </c>
       <c r="B16">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>20</v>
-      </c>
-      <c r="B17">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>60</v>
+        <v>136</v>
+      </c>
+      <c r="C16">
+        <v>222</v>
+      </c>
+      <c r="D16">
+        <v>395</v>
+      </c>
+      <c r="E16">
+        <v>531</v>
+      </c>
+      <c r="F16">
+        <v>907</v>
+      </c>
+      <c r="G16">
+        <v>1088</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
